--- a/data/URL_test.xlsx
+++ b/data/URL_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iubhfs-my.sharepoint.com/personal/vladimir_nechaev_iubh_de/Documents/IUBH учеба/Thesis/Data Sets/KNN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iubhfs-my.sharepoint.com/personal/vladimir_nechaev_iubh_de/Documents/IUBH учеба/Thesis/Git/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="8_{11F52DCC-2BCA-47A0-AF66-D1E527946A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E7BBD1-A9D4-4B79-BBAC-11F3F4C2F481}"/>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F809C2-2A73-489C-8A1D-452DD38B1D74}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
